--- a/data/trans_dic/P38B-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P38B-Clase-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.8563491373426065</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.8533321101667478</v>
+        <v>0.8533321101667476</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.9069735065089084</v>
@@ -655,7 +655,7 @@
         <v>0.908400426707625</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.8937168020955427</v>
+        <v>0.8937168020955426</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.8978706206530852</v>
@@ -664,7 +664,7 @@
         <v>0.8796239258786436</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.8723155266764048</v>
+        <v>0.8723155266764047</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8593227869941251</v>
+        <v>0.8585411312045895</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.822552197414538</v>
+        <v>0.8171703480300989</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8132926678811992</v>
+        <v>0.8174554008206081</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8670161027335614</v>
+        <v>0.8674304728723948</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8741914552653473</v>
+        <v>0.8701057421625379</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8622750492108722</v>
+        <v>0.8641931103685997</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8752124225794398</v>
+        <v>0.8718767538288472</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.852672646501764</v>
+        <v>0.8522316020996543</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.8486268043009472</v>
+        <v>0.8483513550899924</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9176506282425794</v>
+        <v>0.9179327610107696</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8886210547739626</v>
+        <v>0.8886306163244015</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8820134633215716</v>
+        <v>0.8860660241443419</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9394562160749815</v>
+        <v>0.9395538428697936</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9369057447655957</v>
+        <v>0.9357461163689714</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9183919468627764</v>
+        <v>0.9183265902658122</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9209743780801208</v>
+        <v>0.9186159118631505</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9022780193116581</v>
+        <v>0.9009069839960496</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8924827814385655</v>
+        <v>0.8952787427953313</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.8719026191103375</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.8581743599809707</v>
+        <v>0.8581743599809706</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.9105592499220114</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8684460830035112</v>
+        <v>0.8705584769396801</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8316777394765376</v>
+        <v>0.833733114417242</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8160701365546037</v>
+        <v>0.8189360179983917</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8763065691624273</v>
+        <v>0.8749123740681389</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8484846123106955</v>
+        <v>0.8507851137318211</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8442958809664675</v>
+        <v>0.8477903662618548</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8839356030753001</v>
+        <v>0.8810363981159847</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.8507554481214853</v>
+        <v>0.8543787113105793</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.8436400934220089</v>
+        <v>0.8432816546097039</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9295347056082587</v>
+        <v>0.9306216175047318</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9051862247939001</v>
+        <v>0.9061129084453461</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8921461566137699</v>
+        <v>0.8901398944898786</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9402384862030534</v>
+        <v>0.9385508596258673</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9147188384032555</v>
+        <v>0.9146647478413577</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9061529384410817</v>
+        <v>0.9084447746107136</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9293507083915544</v>
+        <v>0.926479968049867</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8999561988033625</v>
+        <v>0.9020501247168322</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.8903023916874166</v>
+        <v>0.8910265894448184</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.8661547589287913</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8662106240705867</v>
+        <v>0.8662106240705866</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.9126097984729711</v>
@@ -873,7 +873,7 @@
         <v>0.8887779500601698</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.9178895301488239</v>
+        <v>0.9178895301488241</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.8661509954765606</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8111053527774104</v>
+        <v>0.8167879273092904</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8346350502619591</v>
+        <v>0.8330925493557442</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8279349732209069</v>
+        <v>0.8270902650484745</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8755502853987007</v>
+        <v>0.8742212636531619</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.834603314029965</v>
+        <v>0.8319154667473594</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.876258876128288</v>
+        <v>0.8728506393003327</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8400397156473969</v>
+        <v>0.8414473615743553</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8420294859752322</v>
+        <v>0.8422549706504714</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8494399751222621</v>
+        <v>0.851871960660641</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8755785756228294</v>
+        <v>0.8748533339416675</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8923010511545845</v>
+        <v>0.8949005298698055</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8977463990750565</v>
+        <v>0.8973946431317922</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.948032074813945</v>
+        <v>0.9448265274806497</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9308906590260219</v>
+        <v>0.9314617531501516</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9491675744658848</v>
+        <v>0.9483867553992298</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8881430553752507</v>
+        <v>0.8891331747054362</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8942032557451951</v>
+        <v>0.8954939472539846</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9052845030703359</v>
+        <v>0.9083831856140824</v>
       </c>
     </row>
     <row r="13">
@@ -982,7 +982,7 @@
         <v>0.8573159631623078</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.8902476985099301</v>
+        <v>0.8902476985099299</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.8554011969012311</v>
@@ -991,7 +991,7 @@
         <v>0.849517735756217</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.8493103208472065</v>
+        <v>0.8493103208472066</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8263242504165322</v>
+        <v>0.8236495853026913</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8210117828211386</v>
+        <v>0.8211166085479548</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7886224862596802</v>
+        <v>0.7879529120006008</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8367677763714705</v>
+        <v>0.8374894995806949</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.830259649649949</v>
+        <v>0.8311050127704029</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8679536961777468</v>
+        <v>0.8692817711309246</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8374310471149697</v>
+        <v>0.8370428406578041</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.8324485895600073</v>
+        <v>0.8338156479008233</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.8321197083369158</v>
+        <v>0.8305964779497851</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.868733520295924</v>
+        <v>0.870050609126908</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8646612815974771</v>
+        <v>0.8642158420114465</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8462816093695601</v>
+        <v>0.8484298297516641</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8890618154306799</v>
+        <v>0.8893251238322878</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8782130292688199</v>
+        <v>0.8800124244940848</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9100262447834215</v>
+        <v>0.9092877792007895</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8709743454557243</v>
+        <v>0.8706239868166625</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8641938621729603</v>
+        <v>0.8646152065496682</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8673039547562371</v>
+        <v>0.8671510387167735</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         <v>0.8060154077242506</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.7644164578824529</v>
+        <v>0.7644164578824528</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.89881511703296</v>
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7681305535857157</v>
+        <v>0.7704403160434351</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.773191545829124</v>
+        <v>0.7714791756984151</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7196688239962922</v>
+        <v>0.7245186426782207</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8740654693712014</v>
+        <v>0.8745996708837608</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8463267108819955</v>
+        <v>0.8437371413011634</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8697601232909343</v>
+        <v>0.869705474006333</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8400632826236049</v>
+        <v>0.840985475453577</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.8197963800164679</v>
+        <v>0.8199278627558294</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.8152423795379231</v>
+        <v>0.8176293537896026</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.835698932340727</v>
+        <v>0.8399786173425404</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8391648546661969</v>
+        <v>0.8358241218770278</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8031671032417885</v>
+        <v>0.807002835577479</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9179956644859996</v>
+        <v>0.9200615031108683</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8966881679829261</v>
+        <v>0.8964525228882719</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9095208724359268</v>
+        <v>0.9082699401835498</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8790630493425526</v>
+        <v>0.8821340652590202</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8617483701441705</v>
+        <v>0.8613227964462978</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.860045207288329</v>
+        <v>0.8619967606383018</v>
       </c>
     </row>
     <row r="19">
@@ -1209,7 +1209,7 @@
         <v>0.8026195745213403</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.7107922122198053</v>
+        <v>0.7107922122198052</v>
       </c>
     </row>
     <row r="20">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3809414651584824</v>
+        <v>0.3801165821448929</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4767831437808143</v>
+        <v>0.4731007371631944</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.311815008392009</v>
+        <v>0.3171922037842159</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.8228275785031045</v>
+        <v>0.8231548338430668</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.8505326830366047</v>
+        <v>0.8502886083360824</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.7616000849926039</v>
+        <v>0.7600312251413046</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.74586153012044</v>
+        <v>0.745055532028938</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.7794386843240521</v>
+        <v>0.7804025065265152</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.6764441466742032</v>
+        <v>0.6751118060308936</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4965643120876269</v>
+        <v>0.4982623122147476</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6017693313868019</v>
+        <v>0.5951272532525342</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5234243779885978</v>
+        <v>0.5097992580225469</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.8681260943027503</v>
+        <v>0.870192904918364</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.8903355038621223</v>
+        <v>0.8911132770861783</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.8247348833300457</v>
+        <v>0.8287499499164995</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.7930565615739196</v>
+        <v>0.791577799225117</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.8229540178957476</v>
+        <v>0.8236434195592177</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.7467663143925289</v>
+        <v>0.7485462425729204</v>
       </c>
     </row>
     <row r="22">
@@ -1318,7 +1318,7 @@
         <v>0.8473955050531233</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.834872996027163</v>
+        <v>0.8348729960271634</v>
       </c>
     </row>
     <row r="23">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8072713232231585</v>
+        <v>0.8074585498210729</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8052635865231063</v>
+        <v>0.8050043709743975</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7814495082173478</v>
+        <v>0.7809593854194151</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8679819768518546</v>
+        <v>0.8670676004011384</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.8630392684637542</v>
+        <v>0.8624966486495598</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.8574766122669079</v>
+        <v>0.8561531183206627</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.842134522579312</v>
+        <v>0.8412805324229349</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.8386940549296892</v>
+        <v>0.8382257874273753</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.824120456930391</v>
+        <v>0.8242518678410297</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8342442403745436</v>
+        <v>0.8342283861823798</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8319723861040526</v>
+        <v>0.8326062821786993</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8172537030261683</v>
+        <v>0.814502347634798</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.889539086813907</v>
+        <v>0.889363595353483</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8845933895684589</v>
+        <v>0.8838979692025055</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.8803815359572776</v>
+        <v>0.8797870648085799</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.8589134185681873</v>
+        <v>0.8592616469247295</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.8565003275517046</v>
+        <v>0.8553543233062918</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.8449130953192892</v>
+        <v>0.8446554410939358</v>
       </c>
     </row>
     <row r="25">
@@ -1619,31 +1619,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>372447</v>
+        <v>372108</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>352951</v>
+        <v>350641</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>447814</v>
+        <v>450106</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>270905</v>
+        <v>271035</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>303393</v>
+        <v>301975</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>421145</v>
+        <v>422081</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>652799</v>
+        <v>650311</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>661799</v>
+        <v>661457</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>881748</v>
+        <v>881462</v>
       </c>
     </row>
     <row r="7">
@@ -1654,31 +1654,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>397727</v>
+        <v>397849</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>381300</v>
+        <v>381304</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>485652</v>
+        <v>487884</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>293540</v>
+        <v>293570</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>325158</v>
+        <v>324755</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>448553</v>
+        <v>448521</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>686932</v>
+        <v>685173</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>700300</v>
+        <v>699236</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>927315</v>
+        <v>930221</v>
       </c>
     </row>
     <row r="8">
@@ -1763,31 +1763,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>362134</v>
+        <v>363015</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>311055</v>
+        <v>311824</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>394335</v>
+        <v>395720</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>294483</v>
+        <v>294014</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>315868</v>
+        <v>316724</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>356739</v>
+        <v>358215</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>665641</v>
+        <v>663457</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>634904</v>
+        <v>637608</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>764119</v>
+        <v>763794</v>
       </c>
     </row>
     <row r="11">
@@ -1798,31 +1798,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>387608</v>
+        <v>388061</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>338548</v>
+        <v>338894</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>431096</v>
+        <v>430126</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>315967</v>
+        <v>315400</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>340525</v>
+        <v>340505</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>382875</v>
+        <v>383843</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>699840</v>
+        <v>697678</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>671622</v>
+        <v>673185</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>806382</v>
+        <v>807038</v>
       </c>
     </row>
     <row r="12">
@@ -1907,31 +1907,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>505568</v>
+        <v>509110</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>433235</v>
+        <v>432434</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>390464</v>
+        <v>390066</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>227756</v>
+        <v>227410</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>137918</v>
+        <v>137474</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>164296</v>
+        <v>163657</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>742121</v>
+        <v>743365</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>576218</v>
+        <v>576373</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>559874</v>
+        <v>561476</v>
       </c>
     </row>
     <row r="15">
@@ -1942,31 +1942,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>545754</v>
+        <v>545302</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>463168</v>
+        <v>464517</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>423388</v>
+        <v>423222</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>246611</v>
+        <v>245777</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>153830</v>
+        <v>153924</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>177966</v>
+        <v>177820</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>784618</v>
+        <v>785492</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>611922</v>
+        <v>612805</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>596681</v>
+        <v>598724</v>
       </c>
     </row>
     <row r="16">
@@ -2051,31 +2051,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>950023</v>
+        <v>946948</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>934969</v>
+        <v>935088</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>891809</v>
+        <v>891052</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>638796</v>
+        <v>639347</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>682643</v>
+        <v>683338</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>745717</v>
+        <v>746858</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1602094</v>
+        <v>1601352</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1632436</v>
+        <v>1635117</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1655927</v>
+        <v>1652896</v>
       </c>
     </row>
     <row r="19">
@@ -2086,31 +2086,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>998781</v>
+        <v>1000295</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>984677</v>
+        <v>984170</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>957012</v>
+        <v>959442</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>678718</v>
+        <v>678919</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>722070</v>
+        <v>723550</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>781865</v>
+        <v>781230</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1666266</v>
+        <v>1665596</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1694688</v>
+        <v>1695515</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1725944</v>
+        <v>1725640</v>
       </c>
     </row>
     <row r="20">
@@ -2195,31 +2195,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>390692</v>
+        <v>391867</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>476346</v>
+        <v>475291</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>408035</v>
+        <v>410785</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>658984</v>
+        <v>659387</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>622955</v>
+        <v>621049</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>722640</v>
+        <v>722595</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1060629</v>
+        <v>1061793</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1108486</v>
+        <v>1108664</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1139567</v>
+        <v>1142904</v>
       </c>
     </row>
     <row r="23">
@@ -2230,31 +2230,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>425059</v>
+        <v>427236</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>516991</v>
+        <v>514933</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>455376</v>
+        <v>457551</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>692104</v>
+        <v>693662</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>660024</v>
+        <v>659851</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>755675</v>
+        <v>754636</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1109868</v>
+        <v>1113745</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1165211</v>
+        <v>1164636</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1202194</v>
+        <v>1204921</v>
       </c>
     </row>
     <row r="24">
@@ -2339,31 +2339,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>101297</v>
+        <v>101077</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>133492</v>
+        <v>132461</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>73971</v>
+        <v>75247</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>908652</v>
+        <v>909013</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>916787</v>
+        <v>916524</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>641805</v>
+        <v>640483</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1021991</v>
+        <v>1020887</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1058386</v>
+        <v>1059695</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>730515</v>
+        <v>729076</v>
       </c>
     </row>
     <row r="27">
@@ -2374,31 +2374,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>132042</v>
+        <v>132493</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>168486</v>
+        <v>166626</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>124171</v>
+        <v>120939</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>958675</v>
+        <v>960958</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>959691</v>
+        <v>960529</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>695009</v>
+        <v>698393</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1086659</v>
+        <v>1084633</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1117474</v>
+        <v>1118411</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>806458</v>
+        <v>808381</v>
       </c>
     </row>
     <row r="28">
@@ -2483,31 +2483,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2743070</v>
+        <v>2743706</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2703299</v>
+        <v>2702429</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2688568</v>
+        <v>2686882</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>3064219</v>
+        <v>3060991</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>3038546</v>
+        <v>3036635</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>3113635</v>
+        <v>3108829</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>5834503</v>
+        <v>5828587</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>5768357</v>
+        <v>5765137</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>5827891</v>
+        <v>5828820</v>
       </c>
     </row>
     <row r="31">
@@ -2518,31 +2518,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>2834723</v>
+        <v>2834669</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>2792961</v>
+        <v>2795089</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>2811752</v>
+        <v>2802286</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>3140322</v>
+        <v>3139703</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>3114432</v>
+        <v>3111984</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>3196806</v>
+        <v>3194648</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>5950751</v>
+        <v>5953164</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>5890825</v>
+        <v>5882943</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>5974929</v>
+        <v>5973107</v>
       </c>
     </row>
     <row r="32">
